--- a/Variance Estimation/Additional Requests/Adding Smaller nB/final_agg_results.xlsx
+++ b/Variance Estimation/Additional Requests/Adding Smaller nB/final_agg_results.xlsx
@@ -4018,22 +4018,22 @@
         <v>0.01</v>
       </c>
       <c r="I72" t="n">
-        <v>0.0102657814195789</v>
+        <v>0.0111731408725852</v>
       </c>
       <c r="J72" t="n">
-        <v>0.00000633828664087516</v>
+        <v>0.0000175263415461067</v>
       </c>
       <c r="K72" t="n">
-        <v>0.687649229433471</v>
+        <v>0.63110484046017</v>
       </c>
       <c r="L72" t="n">
-        <v>0.00800506286869811</v>
+        <v>0.0124051478417814</v>
       </c>
       <c r="M72" t="n">
-        <v>0.0000166409726607813</v>
+        <v>0.0000497127989474821</v>
       </c>
       <c r="N72" t="n">
-        <v>61.9115614809406</v>
+        <v>64.744810356339</v>
       </c>
       <c r="O72" t="n">
         <v>1500</v>
@@ -4068,22 +4068,22 @@
         <v>0.01</v>
       </c>
       <c r="I73" t="n">
-        <v>0.0102657814195789</v>
+        <v>0.0111731408725852</v>
       </c>
       <c r="J73" t="n">
-        <v>0.0000194545514928245</v>
+        <v>0.0000617041003161542</v>
       </c>
       <c r="K73" t="n">
-        <v>0.880833514217495</v>
+        <v>0.877577599305405</v>
       </c>
       <c r="L73" t="n">
-        <v>0.0139421536567506</v>
+        <v>0.0238955727604498</v>
       </c>
       <c r="M73" t="n">
-        <v>0.0000166409726607813</v>
+        <v>0.0000497127989474821</v>
       </c>
       <c r="N73" t="n">
-        <v>-16.9075383356296</v>
+        <v>-24.1211551603443</v>
       </c>
       <c r="O73" t="n">
         <v>1500</v>
@@ -4118,22 +4118,22 @@
         <v>0.01</v>
       </c>
       <c r="I74" t="n">
-        <v>0.00448018450184502</v>
+        <v>0.00176000434121988</v>
       </c>
       <c r="J74" t="n">
-        <v>0.00000228428018409506</v>
+        <v>0.00000312568780801462</v>
       </c>
       <c r="K74" t="n">
-        <v>0.157803342739309</v>
+        <v>0.0758628174517043</v>
       </c>
       <c r="L74" t="n">
-        <v>0.00462573810779202</v>
+        <v>0.00399146173480774</v>
       </c>
       <c r="M74" t="n">
-        <v>0.00000647645651648179</v>
+        <v>0.00000360355684357164</v>
       </c>
       <c r="N74" t="n">
-        <v>64.7294754734808</v>
+        <v>13.2610378107254</v>
       </c>
       <c r="O74" t="n">
         <v>1500</v>
@@ -4168,22 +4168,22 @@
         <v>0.01</v>
       </c>
       <c r="I75" t="n">
-        <v>0.00448018450184502</v>
+        <v>0.00176000434121988</v>
       </c>
       <c r="J75" t="n">
-        <v>0.00000860995918262474</v>
+        <v>0.00000503136211747934</v>
       </c>
       <c r="K75" t="n">
-        <v>0.348165834599522</v>
+        <v>0.106576948122422</v>
       </c>
       <c r="L75" t="n">
-        <v>0.00898022860209599</v>
+        <v>0.00591984852179776</v>
       </c>
       <c r="M75" t="n">
-        <v>0.00000647645651648179</v>
+        <v>0.00000360355684357164</v>
       </c>
       <c r="N75" t="n">
-        <v>-32.9424379012418</v>
+        <v>-39.6221104838337</v>
       </c>
       <c r="O75" t="n">
         <v>1500</v>
@@ -4218,22 +4218,22 @@
         <v>0.1</v>
       </c>
       <c r="I76" t="n">
-        <v>0.100765621879748</v>
+        <v>0.103322699153462</v>
       </c>
       <c r="J76" t="n">
-        <v>0.000111592810862528</v>
+        <v>0.000241847083705482</v>
       </c>
       <c r="K76" t="n">
-        <v>0.661927501627958</v>
+        <v>0.652376817885826</v>
       </c>
       <c r="L76" t="n">
-        <v>0.0345593967794097</v>
+        <v>0.0506260477743765</v>
       </c>
       <c r="M76" t="n">
-        <v>0.000316382235383332</v>
+        <v>0.00077537284137328</v>
       </c>
       <c r="N76" t="n">
-        <v>64.7284839721417</v>
+        <v>68.8089302590041</v>
       </c>
       <c r="O76" t="n">
         <v>1500</v>
@@ -4268,22 +4268,22 @@
         <v>0.1</v>
       </c>
       <c r="I77" t="n">
-        <v>0.100765621879748</v>
+        <v>0.103322699153462</v>
       </c>
       <c r="J77" t="n">
-        <v>0.000311823085540892</v>
+        <v>0.000808762540817184</v>
       </c>
       <c r="K77" t="n">
-        <v>0.890601258953766</v>
+        <v>0.896570436292598</v>
       </c>
       <c r="L77" t="n">
-        <v>0.057533164042165</v>
+        <v>0.0921617452442881</v>
       </c>
       <c r="M77" t="n">
-        <v>0.000316382235383332</v>
+        <v>0.00077537284137328</v>
       </c>
       <c r="N77" t="n">
-        <v>1.44102586446301</v>
+        <v>-4.30627662748241</v>
       </c>
       <c r="O77" t="n">
         <v>1500</v>
@@ -4318,22 +4318,22 @@
         <v>0.1</v>
       </c>
       <c r="I78" t="n">
-        <v>0.0653329379205557</v>
+        <v>0.0318839136097243</v>
       </c>
       <c r="J78" t="n">
-        <v>0.0000687481793591912</v>
+        <v>0.0000869373377169667</v>
       </c>
       <c r="K78" t="n">
-        <v>0.112763186455394</v>
+        <v>0.000759713479487732</v>
       </c>
       <c r="L78" t="n">
-        <v>0.0270091620205729</v>
+        <v>0.0295391641530023</v>
       </c>
       <c r="M78" t="n">
-        <v>0.000237367935088515</v>
+        <v>0.000153519253866844</v>
       </c>
       <c r="N78" t="n">
-        <v>71.0372930810749</v>
+        <v>43.3704010883401</v>
       </c>
       <c r="O78" t="n">
         <v>1500</v>
@@ -4368,22 +4368,22 @@
         <v>0.1</v>
       </c>
       <c r="I79" t="n">
-        <v>0.0653329379205557</v>
+        <v>0.0318839136097243</v>
       </c>
       <c r="J79" t="n">
-        <v>0.000274506397648248</v>
+        <v>0.000257095202536194</v>
       </c>
       <c r="K79" t="n">
-        <v>0.32895593661819</v>
+        <v>0.025830258302583</v>
       </c>
       <c r="L79" t="n">
-        <v>0.053682365389743</v>
+        <v>0.0507719273327439</v>
       </c>
       <c r="M79" t="n">
-        <v>0.000237367935088515</v>
+        <v>0.000153519253866844</v>
       </c>
       <c r="N79" t="n">
-        <v>-15.645947522728</v>
+        <v>-67.4677254223681</v>
       </c>
       <c r="O79" t="n">
         <v>1500</v>
@@ -4418,22 +4418,22 @@
         <v>0.25</v>
       </c>
       <c r="I80" t="n">
-        <v>0.248195667462557</v>
+        <v>0.251751328413284</v>
       </c>
       <c r="J80" t="n">
-        <v>0.000293279283335746</v>
+        <v>0.000592630072956108</v>
       </c>
       <c r="K80" t="n">
-        <v>0.746038636856957</v>
+        <v>0.708270023876709</v>
       </c>
       <c r="L80" t="n">
-        <v>0.0562587122722974</v>
+        <v>0.079886734806905</v>
       </c>
       <c r="M80" t="n">
-        <v>0.000614049011705754</v>
+        <v>0.00145046555499189</v>
       </c>
       <c r="N80" t="n">
-        <v>52.2384569073646</v>
+        <v>59.1420788369276</v>
       </c>
       <c r="O80" t="n">
         <v>1500</v>
@@ -4468,22 +4468,22 @@
         <v>0.25</v>
       </c>
       <c r="I81" t="n">
-        <v>0.248195667462557</v>
+        <v>0.251751328413284</v>
       </c>
       <c r="J81" t="n">
-        <v>0.000615344637819583</v>
+        <v>0.00151485948352411</v>
       </c>
       <c r="K81" t="n">
-        <v>0.884957673106142</v>
+        <v>0.906663772520078</v>
       </c>
       <c r="L81" t="n">
-        <v>0.0811331903850458</v>
+        <v>0.127000301638141</v>
       </c>
       <c r="M81" t="n">
-        <v>0.000614049011705754</v>
+        <v>0.00145046555499189</v>
       </c>
       <c r="N81" t="n">
-        <v>-0.210997182493642</v>
+        <v>-4.43953517617886</v>
       </c>
       <c r="O81" t="n">
         <v>1500</v>
@@ -4518,22 +4518,22 @@
         <v>0.25</v>
       </c>
       <c r="I82" t="n">
-        <v>0.190829018884306</v>
+        <v>0.118996538962448</v>
       </c>
       <c r="J82" t="n">
-        <v>0.000237615960049467</v>
+        <v>0.000346834275555432</v>
       </c>
       <c r="K82" t="n">
-        <v>0.0914912090297374</v>
+        <v>0</v>
       </c>
       <c r="L82" t="n">
-        <v>0.0506055822398194</v>
+        <v>0.060861239014112</v>
       </c>
       <c r="M82" t="n">
-        <v>0.000594910226867546</v>
+        <v>0.000677179963760717</v>
       </c>
       <c r="N82" t="n">
-        <v>60.0585181901116</v>
+        <v>48.7825549903619</v>
       </c>
       <c r="O82" t="n">
         <v>1500</v>
@@ -4568,22 +4568,22 @@
         <v>0.25</v>
       </c>
       <c r="I83" t="n">
-        <v>0.190829018884306</v>
+        <v>0.118996538962448</v>
       </c>
       <c r="J83" t="n">
-        <v>0.000721981288224907</v>
+        <v>0.00113776626862543</v>
       </c>
       <c r="K83" t="n">
-        <v>0.274582157586282</v>
+        <v>0.01345778163664</v>
       </c>
       <c r="L83" t="n">
-        <v>0.0877237723974264</v>
+        <v>0.109613192044666</v>
       </c>
       <c r="M83" t="n">
-        <v>0.000594910226867546</v>
+        <v>0.000677179963760717</v>
       </c>
       <c r="N83" t="n">
-        <v>-21.359703635697</v>
+        <v>-68.0153473984745</v>
       </c>
       <c r="O83" t="n">
         <v>1500</v>
@@ -4618,22 +4618,22 @@
         <v>0.5</v>
       </c>
       <c r="I84" t="n">
-        <v>0.499608391578033</v>
+        <v>0.500784327110918</v>
       </c>
       <c r="J84" t="n">
-        <v>0.000433053141728839</v>
+        <v>0.0008546213632934</v>
       </c>
       <c r="K84" t="n">
-        <v>0.831560668547863</v>
+        <v>0.801280659865422</v>
       </c>
       <c r="L84" t="n">
-        <v>0.0683989000141476</v>
+        <v>0.0959283647900813</v>
       </c>
       <c r="M84" t="n">
-        <v>0.0005916621866236</v>
+        <v>0.00131505207749682</v>
       </c>
       <c r="N84" t="n">
-        <v>26.8073655002164</v>
+        <v>35.0123559425753</v>
       </c>
       <c r="O84" t="n">
         <v>1500</v>
@@ -4668,22 +4668,22 @@
         <v>0.5</v>
       </c>
       <c r="I85" t="n">
-        <v>0.499608391578033</v>
+        <v>0.500784327110918</v>
       </c>
       <c r="J85" t="n">
-        <v>0.000612208062948248</v>
+        <v>0.00141739392603946</v>
       </c>
       <c r="K85" t="n">
-        <v>0.901454308660734</v>
+        <v>0.910462339917517</v>
       </c>
       <c r="L85" t="n">
-        <v>0.0810775674952355</v>
+        <v>0.122836604031011</v>
       </c>
       <c r="M85" t="n">
-        <v>0.0005916621866236</v>
+        <v>0.00131505207749682</v>
       </c>
       <c r="N85" t="n">
-        <v>-3.47256877136188</v>
+        <v>-7.78234187785553</v>
       </c>
       <c r="O85" t="n">
         <v>1500</v>
@@ -4718,22 +4718,22 @@
         <v>0.5</v>
       </c>
       <c r="I86" t="n">
-        <v>0.441673275450402</v>
+        <v>0.347451217712177</v>
       </c>
       <c r="J86" t="n">
-        <v>0.000442270691674964</v>
+        <v>0.000835428477123039</v>
       </c>
       <c r="K86" t="n">
-        <v>0.1610592576514</v>
+        <v>0</v>
       </c>
       <c r="L86" t="n">
-        <v>0.0691194073570124</v>
+        <v>0.094928726964366</v>
       </c>
       <c r="M86" t="n">
-        <v>0.000569342133870278</v>
+        <v>0.00108513614333412</v>
       </c>
       <c r="N86" t="n">
-        <v>22.318994965559</v>
+        <v>23.0116439992355</v>
       </c>
       <c r="O86" t="n">
         <v>1500</v>
@@ -4768,22 +4768,22 @@
         <v>0.5</v>
       </c>
       <c r="I87" t="n">
-        <v>0.441673275450402</v>
+        <v>0.347451217712177</v>
       </c>
       <c r="J87" t="n">
-        <v>0.000747214640641654</v>
+        <v>0.00183658431162199</v>
       </c>
       <c r="K87" t="n">
-        <v>0.282830475363577</v>
+        <v>0.00748860429780765</v>
       </c>
       <c r="L87" t="n">
-        <v>0.0894877748449516</v>
+        <v>0.14009135270607</v>
       </c>
       <c r="M87" t="n">
-        <v>0.000569342133870278</v>
+        <v>0.00108513614333412</v>
       </c>
       <c r="N87" t="n">
-        <v>-31.2417606549216</v>
+        <v>-69.2492064616904</v>
       </c>
       <c r="O87" t="n">
         <v>1500</v>
@@ -4818,22 +4818,22 @@
         <v>0.75</v>
       </c>
       <c r="I88" t="n">
-        <v>0.74931722921641</v>
+        <v>0.750714877360538</v>
       </c>
       <c r="J88" t="n">
-        <v>0.00029464406833785</v>
+        <v>0.000601540021133064</v>
       </c>
       <c r="K88" t="n">
-        <v>0.868678098545691</v>
+        <v>0.860538311265466</v>
       </c>
       <c r="L88" t="n">
-        <v>0.0563859101938302</v>
+        <v>0.0803323997616135</v>
       </c>
       <c r="M88" t="n">
-        <v>0.000368873530246598</v>
+        <v>0.000758542530816385</v>
       </c>
       <c r="N88" t="n">
-        <v>20.1232823236528</v>
+        <v>20.6979178233218</v>
       </c>
       <c r="O88" t="n">
         <v>1500</v>
@@ -4868,22 +4868,22 @@
         <v>0.75</v>
       </c>
       <c r="I89" t="n">
-        <v>0.74931722921641</v>
+        <v>0.750714877360538</v>
       </c>
       <c r="J89" t="n">
-        <v>0.000370084004800903</v>
+        <v>0.000786365736542541</v>
       </c>
       <c r="K89" t="n">
-        <v>0.911547644888214</v>
+        <v>0.908834382461472</v>
       </c>
       <c r="L89" t="n">
-        <v>0.0630758945020623</v>
+        <v>0.0915352483450125</v>
       </c>
       <c r="M89" t="n">
-        <v>0.000368873530246598</v>
+        <v>0.000758542530816385</v>
       </c>
       <c r="N89" t="n">
-        <v>-0.328154355097245</v>
+        <v>-3.66798229444186</v>
       </c>
       <c r="O89" t="n">
         <v>1500</v>
@@ -4918,22 +4918,22 @@
         <v>0.75</v>
       </c>
       <c r="I90" t="n">
-        <v>0.718235325591491</v>
+        <v>0.65749279900152</v>
       </c>
       <c r="J90" t="n">
-        <v>0.000336216256447146</v>
+        <v>0.000819283155507075</v>
       </c>
       <c r="K90" t="n">
-        <v>0.456153679183851</v>
+        <v>0.0388539179509442</v>
       </c>
       <c r="L90" t="n">
-        <v>0.0602385536462536</v>
+        <v>0.093881576851049</v>
       </c>
       <c r="M90" t="n">
-        <v>0.000312455181783699</v>
+        <v>0.000723414744438701</v>
       </c>
       <c r="N90" t="n">
-        <v>-7.60463453600072</v>
+        <v>-13.2522058480794</v>
       </c>
       <c r="O90" t="n">
         <v>1500</v>
@@ -4968,22 +4968,22 @@
         <v>0.75</v>
       </c>
       <c r="I91" t="n">
-        <v>0.718235325591491</v>
+        <v>0.65749279900152</v>
       </c>
       <c r="J91" t="n">
-        <v>0.000365420362571893</v>
+        <v>0.000963829556036409</v>
       </c>
       <c r="K91" t="n">
-        <v>0.491534621228565</v>
+        <v>0.0502496201432602</v>
       </c>
       <c r="L91" t="n">
-        <v>0.0627624293960261</v>
+        <v>0.101679357791114</v>
       </c>
       <c r="M91" t="n">
-        <v>0.000312455181783699</v>
+        <v>0.000723414744438701</v>
       </c>
       <c r="N91" t="n">
-        <v>-16.9512889771369</v>
+        <v>-33.2333303192826</v>
       </c>
       <c r="O91" t="n">
         <v>1500</v>
@@ -5018,22 +5018,22 @@
         <v>0.9</v>
       </c>
       <c r="I92" t="n">
-        <v>0.899537279140438</v>
+        <v>0.899873799652702</v>
       </c>
       <c r="J92" t="n">
-        <v>0.000111117542231061</v>
+        <v>0.000243018619573308</v>
       </c>
       <c r="K92" t="n">
-        <v>0.794985891035381</v>
+        <v>0.815932276969829</v>
       </c>
       <c r="L92" t="n">
-        <v>0.0345508600149911</v>
+        <v>0.0507785766915803</v>
       </c>
       <c r="M92" t="n">
-        <v>0.000173059889101058</v>
+        <v>0.000361767050197995</v>
       </c>
       <c r="N92" t="n">
-        <v>35.7924341635433</v>
+        <v>32.8245567305523</v>
       </c>
       <c r="O92" t="n">
         <v>1500</v>
@@ -5068,22 +5068,22 @@
         <v>0.9</v>
       </c>
       <c r="I93" t="n">
-        <v>0.899537279140438</v>
+        <v>0.899873799652702</v>
       </c>
       <c r="J93" t="n">
-        <v>0.000169447569080444</v>
+        <v>0.00034155394227911</v>
       </c>
       <c r="K93" t="n">
-        <v>0.883546776644237</v>
+        <v>0.879748209246798</v>
       </c>
       <c r="L93" t="n">
-        <v>0.0425823309135812</v>
+        <v>0.0601727583850257</v>
       </c>
       <c r="M93" t="n">
-        <v>0.000173059889101058</v>
+        <v>0.000361767050197995</v>
       </c>
       <c r="N93" t="n">
-        <v>2.0873236654535</v>
+        <v>5.58732695745001</v>
       </c>
       <c r="O93" t="n">
         <v>1500</v>
@@ -5118,22 +5118,22 @@
         <v>0.9</v>
       </c>
       <c r="I94" t="n">
-        <v>0.890538240720642</v>
+        <v>0.86766723572824</v>
       </c>
       <c r="J94" t="n">
-        <v>0.000125674730430242</v>
+        <v>0.000363839870045178</v>
       </c>
       <c r="K94" t="n">
-        <v>0.735402648144128</v>
+        <v>0.453331886260039</v>
       </c>
       <c r="L94" t="n">
-        <v>0.0367695384102698</v>
+        <v>0.0623058010091298</v>
       </c>
       <c r="M94" t="n">
-        <v>0.000167747641504622</v>
+        <v>0.000426517645033542</v>
       </c>
       <c r="N94" t="n">
-        <v>25.0810745814397</v>
+        <v>14.6952361099703</v>
       </c>
       <c r="O94" t="n">
         <v>1500</v>
@@ -5168,22 +5168,22 @@
         <v>0.9</v>
       </c>
       <c r="I95" t="n">
-        <v>0.890538240720642</v>
+        <v>0.86766723572824</v>
       </c>
       <c r="J95" t="n">
-        <v>0.000177901833894863</v>
+        <v>0.000474923784320093</v>
       </c>
       <c r="K95" t="n">
-        <v>0.830149772085956</v>
+        <v>0.552094638593444</v>
       </c>
       <c r="L95" t="n">
-        <v>0.043680356569323</v>
+        <v>0.0712099065502806</v>
       </c>
       <c r="M95" t="n">
-        <v>0.000167747641504622</v>
+        <v>0.000426517645033542</v>
       </c>
       <c r="N95" t="n">
-        <v>-6.05325493650003</v>
+        <v>-11.3491528076743</v>
       </c>
       <c r="O95" t="n">
         <v>1500</v>
@@ -5218,22 +5218,22 @@
         <v>0.99</v>
       </c>
       <c r="I96" t="n">
-        <v>0.990071632298676</v>
+        <v>0.989662797916214</v>
       </c>
       <c r="J96" t="n">
-        <v>0.000006086280637791</v>
+        <v>0.0000163467858098833</v>
       </c>
       <c r="K96" t="n">
-        <v>0.740395051009334</v>
+        <v>0.744736270892122</v>
       </c>
       <c r="L96" t="n">
-        <v>0.00790172188812197</v>
+        <v>0.0122640738545838</v>
       </c>
       <c r="M96" t="n">
-        <v>0.0000120458959351165</v>
+        <v>0.0000260629550059395</v>
       </c>
       <c r="N96" t="n">
-        <v>49.4742386072909</v>
+        <v>37.2796146631954</v>
       </c>
       <c r="O96" t="n">
         <v>1500</v>
@@ -5268,22 +5268,22 @@
         <v>0.99</v>
       </c>
       <c r="I97" t="n">
-        <v>0.990071632298676</v>
+        <v>0.989662797916214</v>
       </c>
       <c r="J97" t="n">
-        <v>0.0000115935679447555</v>
+        <v>0.0000231278234220015</v>
       </c>
       <c r="K97" t="n">
-        <v>0.853483828955936</v>
+        <v>0.821467332320382</v>
       </c>
       <c r="L97" t="n">
-        <v>0.0108936850642189</v>
+        <v>0.0149094716051283</v>
       </c>
       <c r="M97" t="n">
-        <v>0.0000120458959351165</v>
+        <v>0.0000260629550059395</v>
       </c>
       <c r="N97" t="n">
-        <v>3.75503817065521</v>
+        <v>11.2616991560209</v>
       </c>
       <c r="O97" t="n">
         <v>1500</v>
@@ -5318,22 +5318,22 @@
         <v>0.99</v>
       </c>
       <c r="I98" t="n">
-        <v>0.990835284349902</v>
+        <v>0.989391166702844</v>
       </c>
       <c r="J98" t="n">
-        <v>0.00000546762309585303</v>
+        <v>0.0000206001473678718</v>
       </c>
       <c r="K98" t="n">
-        <v>0.701758194052528</v>
+        <v>0.766550900803126</v>
       </c>
       <c r="L98" t="n">
-        <v>0.00748504898102875</v>
+        <v>0.0136041787532869</v>
       </c>
       <c r="M98" t="n">
-        <v>0.0000103317241511998</v>
+        <v>0.0000278349872742802</v>
       </c>
       <c r="N98" t="n">
-        <v>47.0792772257851</v>
+        <v>25.9918922725482</v>
       </c>
       <c r="O98" t="n">
         <v>1500</v>
@@ -5368,22 +5368,22 @@
         <v>0.99</v>
       </c>
       <c r="I99" t="n">
-        <v>0.990835284349902</v>
+        <v>0.989391166702844</v>
       </c>
       <c r="J99" t="n">
-        <v>0.000011524542373197</v>
+        <v>0.0000292351269576947</v>
       </c>
       <c r="K99" t="n">
-        <v>0.849576731061428</v>
+        <v>0.861732146733232</v>
       </c>
       <c r="L99" t="n">
-        <v>0.0108812249695526</v>
+        <v>0.0168155387283987</v>
       </c>
       <c r="M99" t="n">
-        <v>0.0000103317241511998</v>
+        <v>0.0000278349872742802</v>
       </c>
       <c r="N99" t="n">
-        <v>-11.5452000512303</v>
+        <v>-5.03014307000666</v>
       </c>
       <c r="O99" t="n">
         <v>1500</v>
@@ -5415,25 +5415,25 @@
         <v>21</v>
       </c>
       <c r="H100" t="n">
-        <v>15.6887566951521</v>
+        <v>-2.95315934070469</v>
       </c>
       <c r="I100" t="n">
-        <v>16.0901762671051</v>
+        <v>-2.34948003646233</v>
       </c>
       <c r="J100" t="n">
-        <v>0.482803954893896</v>
+        <v>0.0000481078553367838</v>
       </c>
       <c r="K100" t="n">
-        <v>0.647818537008899</v>
+        <v>0.00510093336227479</v>
       </c>
       <c r="L100" t="n">
-        <v>2.19762009321374</v>
+        <v>0.00231671932972785</v>
       </c>
       <c r="M100" t="n">
-        <v>1.27319295430709</v>
+        <v>0.086821050965362</v>
       </c>
       <c r="N100" t="n">
-        <v>62.0792784580987</v>
+        <v>99.9445896417955</v>
       </c>
       <c r="O100" t="n">
         <v>1500</v>
@@ -5465,25 +5465,25 @@
         <v>21</v>
       </c>
       <c r="H101" t="n">
-        <v>15.6887566951521</v>
+        <v>-2.95315934070469</v>
       </c>
       <c r="I101" t="n">
-        <v>16.0901762671051</v>
+        <v>-2.34948003646233</v>
       </c>
       <c r="J101" t="n">
-        <v>1.02874344595705</v>
+        <v>0.0926383499179537</v>
       </c>
       <c r="K101" t="n">
-        <v>0.823855003255915</v>
+        <v>0.364228348165834</v>
       </c>
       <c r="L101" t="n">
-        <v>3.30360487940154</v>
+        <v>0.9916314306704</v>
       </c>
       <c r="M101" t="n">
-        <v>1.27319295430709</v>
+        <v>0.086821050965362</v>
       </c>
       <c r="N101" t="n">
-        <v>19.1997220470856</v>
+        <v>-6.7003323363508</v>
       </c>
       <c r="O101" t="n">
         <v>1500</v>
@@ -5515,25 +5515,25 @@
         <v>21</v>
       </c>
       <c r="H102" t="n">
-        <v>15.6887566951521</v>
+        <v>-2.95315934070469</v>
       </c>
       <c r="I102" t="n">
-        <v>16.0901762671051</v>
+        <v>-2.34948003646233</v>
       </c>
       <c r="J102" t="n">
-        <v>0.540162381193733</v>
+        <v>0.000193230838151928</v>
       </c>
       <c r="K102" t="n">
-        <v>0.662795745604515</v>
+        <v>0.00683742131538965</v>
       </c>
       <c r="L102" t="n">
-        <v>2.27262997995117</v>
+        <v>0.0112605491493939</v>
       </c>
       <c r="M102" t="n">
-        <v>1.27319295430709</v>
+        <v>0.086821050965362</v>
       </c>
       <c r="N102" t="n">
-        <v>57.574193340733</v>
+        <v>99.7774378033859</v>
       </c>
       <c r="O102" t="n">
         <v>1500</v>
@@ -5565,25 +5565,25 @@
         <v>21</v>
       </c>
       <c r="H103" t="n">
-        <v>15.6887566951521</v>
+        <v>-2.95315934070469</v>
       </c>
       <c r="I103" t="n">
-        <v>18.1008661269901</v>
+        <v>-1.60975490069895</v>
       </c>
       <c r="J103" t="n">
-        <v>0.432470205416997</v>
+        <v>0.000012935857556762</v>
       </c>
       <c r="K103" t="n">
-        <v>0.175276752767528</v>
+        <v>0</v>
       </c>
       <c r="L103" t="n">
-        <v>2.06310229820491</v>
+        <v>0.000631956402026978</v>
       </c>
       <c r="M103" t="n">
-        <v>1.33208364062799</v>
+        <v>0.0600965898330845</v>
       </c>
       <c r="N103" t="n">
-        <v>67.5343054875207</v>
+        <v>99.9784748891864</v>
       </c>
       <c r="O103" t="n">
         <v>1500</v>
@@ -5615,25 +5615,25 @@
         <v>21</v>
       </c>
       <c r="H104" t="n">
-        <v>15.6887566951521</v>
+        <v>-2.95315934070469</v>
       </c>
       <c r="I104" t="n">
-        <v>18.1008661269901</v>
+        <v>-1.60975490069895</v>
       </c>
       <c r="J104" t="n">
-        <v>1.31741985671727</v>
+        <v>0.0849504804997817</v>
       </c>
       <c r="K104" t="n">
-        <v>0.314521380507923</v>
+        <v>0.00119383546776644</v>
       </c>
       <c r="L104" t="n">
-        <v>3.7403150343519</v>
+        <v>0.950920714232681</v>
       </c>
       <c r="M104" t="n">
-        <v>1.33208364062799</v>
+        <v>0.0600965898330845</v>
       </c>
       <c r="N104" t="n">
-        <v>1.10081555417999</v>
+        <v>-41.3565740347792</v>
       </c>
       <c r="O104" t="n">
         <v>1500</v>
@@ -5665,25 +5665,25 @@
         <v>21</v>
       </c>
       <c r="H105" t="n">
-        <v>15.6887566951521</v>
+        <v>-2.95315934070469</v>
       </c>
       <c r="I105" t="n">
-        <v>18.1008661269901</v>
+        <v>-1.60975490069895</v>
       </c>
       <c r="J105" t="n">
-        <v>0.450689026342757</v>
+        <v>0.0000615292564289296</v>
       </c>
       <c r="K105" t="n">
-        <v>0.183959192533102</v>
+        <v>0</v>
       </c>
       <c r="L105" t="n">
-        <v>2.07045015534748</v>
+        <v>0.00370308966990872</v>
       </c>
       <c r="M105" t="n">
-        <v>1.33208364062799</v>
+        <v>0.0600965898330845</v>
       </c>
       <c r="N105" t="n">
-        <v>66.1666120206772</v>
+        <v>99.8976160600796</v>
       </c>
       <c r="O105" t="n">
         <v>1500</v>
@@ -5715,25 +5715,25 @@
         <v>21</v>
       </c>
       <c r="H106" t="n">
-        <v>23.0645884570442</v>
+        <v>-1.85385518975421</v>
       </c>
       <c r="I106" t="n">
-        <v>23.0927643948379</v>
+        <v>-1.85913509439239</v>
       </c>
       <c r="J106" t="n">
-        <v>0.177398842327039</v>
+        <v>0.00896425582249638</v>
       </c>
       <c r="K106" t="n">
-        <v>0.675493813761667</v>
+        <v>0.628065986542218</v>
       </c>
       <c r="L106" t="n">
-        <v>1.38107164765637</v>
+        <v>0.30867053163521</v>
       </c>
       <c r="M106" t="n">
-        <v>0.501591431019707</v>
+        <v>0.0295747041112036</v>
       </c>
       <c r="N106" t="n">
-        <v>64.6328004514755</v>
+        <v>69.6894488317111</v>
       </c>
       <c r="O106" t="n">
         <v>1500</v>
@@ -5765,25 +5765,25 @@
         <v>21</v>
       </c>
       <c r="H107" t="n">
-        <v>23.0645884570442</v>
+        <v>-1.85385518975421</v>
       </c>
       <c r="I107" t="n">
-        <v>23.0927643948379</v>
+        <v>-1.85913509439239</v>
       </c>
       <c r="J107" t="n">
-        <v>0.418540997437459</v>
+        <v>0.0306250575561509</v>
       </c>
       <c r="K107" t="n">
-        <v>0.849793792055568</v>
+        <v>0.895810722813111</v>
       </c>
       <c r="L107" t="n">
-        <v>2.10868321163377</v>
+        <v>0.56931511844933</v>
       </c>
       <c r="M107" t="n">
-        <v>0.501591431019707</v>
+        <v>0.0295747041112036</v>
       </c>
       <c r="N107" t="n">
-        <v>16.5573868384097</v>
+        <v>-3.5515264700465</v>
       </c>
       <c r="O107" t="n">
         <v>1500</v>
@@ -5815,25 +5815,25 @@
         <v>21</v>
       </c>
       <c r="H108" t="n">
-        <v>23.0645884570442</v>
+        <v>-1.85385518975421</v>
       </c>
       <c r="I108" t="n">
-        <v>23.0927643948379</v>
+        <v>-1.85913509439239</v>
       </c>
       <c r="J108" t="n">
-        <v>0.0832570058156625</v>
+        <v>0.00115477728568305</v>
       </c>
       <c r="K108" t="n">
-        <v>0.488929889298892</v>
+        <v>0.230301714781854</v>
       </c>
       <c r="L108" t="n">
-        <v>0.942351482631628</v>
+        <v>0.109616623368441</v>
       </c>
       <c r="M108" t="n">
-        <v>0.501591431019707</v>
+        <v>0.0295747041112036</v>
       </c>
       <c r="N108" t="n">
-        <v>83.4014297958787</v>
+        <v>96.0953885410282</v>
       </c>
       <c r="O108" t="n">
         <v>1500</v>
@@ -5865,25 +5865,25 @@
         <v>21</v>
       </c>
       <c r="H109" t="n">
-        <v>23.0645884570442</v>
+        <v>-1.85385518975421</v>
       </c>
       <c r="I109" t="n">
-        <v>24.6324534022968</v>
+        <v>-1.2745193048947</v>
       </c>
       <c r="J109" t="n">
-        <v>0.163021724914478</v>
+        <v>0.00836756470610106</v>
       </c>
       <c r="K109" t="n">
-        <v>0.118949424788366</v>
+        <v>0.00141089646190578</v>
       </c>
       <c r="L109" t="n">
-        <v>1.32325882580855</v>
+        <v>0.296582737941042</v>
       </c>
       <c r="M109" t="n">
-        <v>0.509945479529115</v>
+        <v>0.0180358722500289</v>
       </c>
       <c r="N109" t="n">
-        <v>68.0315383783747</v>
+        <v>53.605988165681</v>
       </c>
       <c r="O109" t="n">
         <v>1500</v>
@@ -5915,25 +5915,25 @@
         <v>21</v>
       </c>
       <c r="H110" t="n">
-        <v>23.0645884570442</v>
+        <v>-1.85385518975421</v>
       </c>
       <c r="I110" t="n">
-        <v>24.6324534022968</v>
+        <v>-1.2745193048947</v>
       </c>
       <c r="J110" t="n">
-        <v>0.542242477367329</v>
+        <v>0.0304132097281549</v>
       </c>
       <c r="K110" t="n">
-        <v>0.306815715215976</v>
+        <v>0.0355980030388539</v>
       </c>
       <c r="L110" t="n">
-        <v>2.39811789063581</v>
+        <v>0.567320289057677</v>
       </c>
       <c r="M110" t="n">
-        <v>0.509945479529115</v>
+        <v>0.0180358722500289</v>
       </c>
       <c r="N110" t="n">
-        <v>-6.33342173520935</v>
+        <v>-68.6262206038093</v>
       </c>
       <c r="O110" t="n">
         <v>1500</v>
@@ -5965,25 +5965,25 @@
         <v>21</v>
       </c>
       <c r="H111" t="n">
-        <v>23.0645884570442</v>
+        <v>-1.85385518975421</v>
       </c>
       <c r="I111" t="n">
-        <v>24.6324534022968</v>
+        <v>-1.2745193048947</v>
       </c>
       <c r="J111" t="n">
-        <v>0.070952705058783</v>
+        <v>0.000934969609556672</v>
       </c>
       <c r="K111" t="n">
-        <v>0.0668547861949207</v>
+        <v>0</v>
       </c>
       <c r="L111" t="n">
-        <v>0.870099786753385</v>
+        <v>0.0972435998306911</v>
       </c>
       <c r="M111" t="n">
-        <v>0.509945479529115</v>
+        <v>0.0180358722500289</v>
       </c>
       <c r="N111" t="n">
-        <v>86.0862174669533</v>
+        <v>94.8160554887764</v>
       </c>
       <c r="O111" t="n">
         <v>1500</v>
@@ -6015,25 +6015,25 @@
         <v>21</v>
       </c>
       <c r="H112" t="n">
-        <v>27.2438110199214</v>
+        <v>-1.18780790654076</v>
       </c>
       <c r="I112" t="n">
-        <v>27.2997562451356</v>
+        <v>-1.19273698641499</v>
       </c>
       <c r="J112" t="n">
-        <v>0.142908263711287</v>
+        <v>0.00754829215118084</v>
       </c>
       <c r="K112" t="n">
-        <v>0.747015411330584</v>
+        <v>0.717603646624701</v>
       </c>
       <c r="L112" t="n">
-        <v>1.24124340000563</v>
+        <v>0.28474533891501</v>
       </c>
       <c r="M112" t="n">
-        <v>0.292559484204869</v>
+        <v>0.0183875585556082</v>
       </c>
       <c r="N112" t="n">
-        <v>51.1524078258174</v>
+        <v>58.9489157663151</v>
       </c>
       <c r="O112" t="n">
         <v>1500</v>
@@ -6065,25 +6065,25 @@
         <v>21</v>
       </c>
       <c r="H113" t="n">
-        <v>27.2438110199214</v>
+        <v>-1.18780790654076</v>
       </c>
       <c r="I113" t="n">
-        <v>27.2997562451356</v>
+        <v>-1.19273698641499</v>
       </c>
       <c r="J113" t="n">
-        <v>0.244190417946917</v>
+        <v>0.018866491643463</v>
       </c>
       <c r="K113" t="n">
-        <v>0.853375298458867</v>
+        <v>0.904710223572824</v>
       </c>
       <c r="L113" t="n">
-        <v>1.61160687068789</v>
+        <v>0.447134442664724</v>
       </c>
       <c r="M113" t="n">
-        <v>0.292559484204869</v>
+        <v>0.0183875585556082</v>
       </c>
       <c r="N113" t="n">
-        <v>16.5330706640435</v>
+        <v>-2.60465839663511</v>
       </c>
       <c r="O113" t="n">
         <v>1500</v>
@@ -6115,25 +6115,25 @@
         <v>21</v>
       </c>
       <c r="H114" t="n">
-        <v>27.2438110199214</v>
+        <v>-1.18780790654076</v>
       </c>
       <c r="I114" t="n">
-        <v>27.2997562451356</v>
+        <v>-1.19273698641499</v>
       </c>
       <c r="J114" t="n">
-        <v>0.0558410043014671</v>
+        <v>0.000845290410871798</v>
       </c>
       <c r="K114" t="n">
-        <v>0.537985673974387</v>
+        <v>0.260690253961363</v>
       </c>
       <c r="L114" t="n">
-        <v>0.774433583935388</v>
+        <v>0.0947279169141187</v>
       </c>
       <c r="M114" t="n">
-        <v>0.292559484204869</v>
+        <v>0.0183875585556082</v>
       </c>
       <c r="N114" t="n">
-        <v>80.9129399946701</v>
+        <v>95.4029219903477</v>
       </c>
       <c r="O114" t="n">
         <v>1500</v>
@@ -6165,25 +6165,25 @@
         <v>21</v>
       </c>
       <c r="H115" t="n">
-        <v>27.2438110199214</v>
+        <v>-1.18780790654076</v>
       </c>
       <c r="I115" t="n">
-        <v>28.5598013102417</v>
+        <v>-0.695460438824238</v>
       </c>
       <c r="J115" t="n">
-        <v>0.129445638089747</v>
+        <v>0.00631091334988623</v>
       </c>
       <c r="K115" t="n">
-        <v>0.0985456913392663</v>
+        <v>0</v>
       </c>
       <c r="L115" t="n">
-        <v>1.18121585854641</v>
+        <v>0.260261172594807</v>
       </c>
       <c r="M115" t="n">
-        <v>0.274042411254558</v>
+        <v>0.00990009780807167</v>
       </c>
       <c r="N115" t="n">
-        <v>52.7643777847564</v>
+        <v>36.2540302910859</v>
       </c>
       <c r="O115" t="n">
         <v>1500</v>
@@ -6215,25 +6215,25 @@
         <v>21</v>
       </c>
       <c r="H116" t="n">
-        <v>27.2438110199214</v>
+        <v>-1.18780790654076</v>
       </c>
       <c r="I116" t="n">
-        <v>28.5598013102417</v>
+        <v>-0.695460438824238</v>
       </c>
       <c r="J116" t="n">
-        <v>0.294296384790279</v>
+        <v>0.0166157411795666</v>
       </c>
       <c r="K116" t="n">
-        <v>0.212285652268288</v>
+        <v>0.0122639461688734</v>
       </c>
       <c r="L116" t="n">
-        <v>1.76775259025608</v>
+        <v>0.419796052273462</v>
       </c>
       <c r="M116" t="n">
-        <v>0.274042411254558</v>
+        <v>0.00990009780807167</v>
       </c>
       <c r="N116" t="n">
-        <v>-7.39081715235192</v>
+        <v>-67.8341113561487</v>
       </c>
       <c r="O116" t="n">
         <v>1500</v>
@@ -6265,25 +6265,25 @@
         <v>21</v>
       </c>
       <c r="H117" t="n">
-        <v>27.2438110199214</v>
+        <v>-1.18780790654076</v>
       </c>
       <c r="I117" t="n">
-        <v>28.5598013102417</v>
+        <v>-0.695460438824238</v>
       </c>
       <c r="J117" t="n">
-        <v>0.0472017133346256</v>
+        <v>0.000545886545313132</v>
       </c>
       <c r="K117" t="n">
-        <v>0.0427610158454526</v>
+        <v>0</v>
       </c>
       <c r="L117" t="n">
-        <v>0.711526142853199</v>
+        <v>0.0760923443116157</v>
       </c>
       <c r="M117" t="n">
-        <v>0.274042411254558</v>
+        <v>0.00990009780807167</v>
       </c>
       <c r="N117" t="n">
-        <v>82.775763386938</v>
+        <v>94.4860489674348</v>
       </c>
       <c r="O117" t="n">
         <v>1500</v>
@@ -6315,25 +6315,25 @@
         <v>21</v>
       </c>
       <c r="H118" t="n">
-        <v>31.9802459892657</v>
+        <v>-0.423352977060986</v>
       </c>
       <c r="I118" t="n">
-        <v>31.9962773661753</v>
+        <v>-0.426416327559594</v>
       </c>
       <c r="J118" t="n">
-        <v>0.133489003725507</v>
+        <v>0.00706577728293374</v>
       </c>
       <c r="K118" t="n">
-        <v>0.836010418927718</v>
+        <v>0.808552203169091</v>
       </c>
       <c r="L118" t="n">
-        <v>1.20011781484891</v>
+        <v>0.275714339120125</v>
       </c>
       <c r="M118" t="n">
-        <v>0.18098268421971</v>
+        <v>0.0108914174910112</v>
       </c>
       <c r="N118" t="n">
-        <v>26.242112994935</v>
+        <v>35.1252737417769</v>
       </c>
       <c r="O118" t="n">
         <v>1500</v>
@@ -6365,25 +6365,25 @@
         <v>21</v>
       </c>
       <c r="H119" t="n">
-        <v>31.9802459892657</v>
+        <v>-0.423352977060986</v>
       </c>
       <c r="I119" t="n">
-        <v>31.9962773661753</v>
+        <v>-0.426416327559594</v>
       </c>
       <c r="J119" t="n">
-        <v>0.139020257365767</v>
+        <v>0.0108714884173669</v>
       </c>
       <c r="K119" t="n">
-        <v>0.837638376383764</v>
+        <v>0.893205990883439</v>
       </c>
       <c r="L119" t="n">
-        <v>1.21853166036645</v>
+        <v>0.340145183828703</v>
       </c>
       <c r="M119" t="n">
-        <v>0.18098268421971</v>
+        <v>0.0108914174910112</v>
       </c>
       <c r="N119" t="n">
-        <v>23.185879375621</v>
+        <v>0.182979613634207</v>
       </c>
       <c r="O119" t="n">
         <v>1500</v>
@@ -6415,25 +6415,25 @@
         <v>21</v>
       </c>
       <c r="H120" t="n">
-        <v>31.9802459892657</v>
+        <v>-0.423352977060986</v>
       </c>
       <c r="I120" t="n">
-        <v>31.9962773661753</v>
+        <v>-0.426416327559594</v>
       </c>
       <c r="J120" t="n">
-        <v>0.0488749996938254</v>
+        <v>0.000808118510348878</v>
       </c>
       <c r="K120" t="n">
-        <v>0.599088343824616</v>
+        <v>0.341979596266552</v>
       </c>
       <c r="L120" t="n">
-        <v>0.724983287119687</v>
+        <v>0.0926823557278612</v>
       </c>
       <c r="M120" t="n">
-        <v>0.18098268421971</v>
+        <v>0.0108914174910112</v>
       </c>
       <c r="N120" t="n">
-        <v>72.9946542098514</v>
+        <v>92.5802264855256</v>
       </c>
       <c r="O120" t="n">
         <v>1500</v>
@@ -6465,25 +6465,25 @@
         <v>21</v>
       </c>
       <c r="H121" t="n">
-        <v>31.9802459892657</v>
+        <v>-0.423352977060986</v>
       </c>
       <c r="I121" t="n">
-        <v>32.939887602431</v>
+        <v>-0.0453200172796721</v>
       </c>
       <c r="J121" t="n">
-        <v>0.120553632492743</v>
+        <v>0.00547564427380782</v>
       </c>
       <c r="K121" t="n">
-        <v>0.153787714347732</v>
+        <v>0</v>
       </c>
       <c r="L121" t="n">
-        <v>1.14033525416364</v>
+        <v>0.242740545268947</v>
       </c>
       <c r="M121" t="n">
-        <v>0.13687956194321</v>
+        <v>0.00535943872550586</v>
       </c>
       <c r="N121" t="n">
-        <v>11.9272221642854</v>
+        <v>-2.16824100906181</v>
       </c>
       <c r="O121" t="n">
         <v>1500</v>
@@ -6515,25 +6515,25 @@
         <v>21</v>
       </c>
       <c r="H122" t="n">
-        <v>31.9802459892657</v>
+        <v>-0.423352977060986</v>
       </c>
       <c r="I122" t="n">
-        <v>32.939887602431</v>
+        <v>-0.0453200172796721</v>
       </c>
       <c r="J122" t="n">
-        <v>0.133692222961363</v>
+        <v>0.00788997374285979</v>
       </c>
       <c r="K122" t="n">
-        <v>0.172346429346646</v>
+        <v>0.00314738441502062</v>
       </c>
       <c r="L122" t="n">
-        <v>1.19440139321317</v>
+        <v>0.290133829811478</v>
       </c>
       <c r="M122" t="n">
-        <v>0.13687956194321</v>
+        <v>0.00535943872550586</v>
       </c>
       <c r="N122" t="n">
-        <v>2.32857187486439</v>
+        <v>-47.2164184900738</v>
       </c>
       <c r="O122" t="n">
         <v>1500</v>
@@ -6565,25 +6565,25 @@
         <v>21</v>
       </c>
       <c r="H123" t="n">
-        <v>31.9802459892657</v>
+        <v>-0.423352977060986</v>
       </c>
       <c r="I123" t="n">
-        <v>32.939887602431</v>
+        <v>-0.0453200172796721</v>
       </c>
       <c r="J123" t="n">
-        <v>0.0417191079982215</v>
+        <v>0.000521401949833281</v>
       </c>
       <c r="K123" t="n">
-        <v>0.0486216626872152</v>
+        <v>0</v>
       </c>
       <c r="L123" t="n">
-        <v>0.669557814207424</v>
+        <v>0.0743968184642063</v>
       </c>
       <c r="M123" t="n">
-        <v>0.13687956194321</v>
+        <v>0.00535943872550586</v>
       </c>
       <c r="N123" t="n">
-        <v>69.5213022266025</v>
+        <v>90.2713329410429</v>
       </c>
       <c r="O123" t="n">
         <v>1500</v>
@@ -6615,25 +6615,25 @@
         <v>21</v>
       </c>
       <c r="H124" t="n">
-        <v>36.6962823324344</v>
+        <v>0.343735110269007</v>
       </c>
       <c r="I124" t="n">
-        <v>36.730447243953</v>
+        <v>0.343017504811598</v>
       </c>
       <c r="J124" t="n">
-        <v>0.145120877489226</v>
+        <v>0.00772118123816793</v>
       </c>
       <c r="K124" t="n">
-        <v>0.855111786411982</v>
+        <v>0.870197525504667</v>
       </c>
       <c r="L124" t="n">
-        <v>1.25079412693956</v>
+        <v>0.287889195094951</v>
       </c>
       <c r="M124" t="n">
-        <v>0.179732941870157</v>
+        <v>0.00971642662391815</v>
       </c>
       <c r="N124" t="n">
-        <v>19.2574961611294</v>
+        <v>20.5347651248525</v>
       </c>
       <c r="O124" t="n">
         <v>1500</v>
@@ -6665,25 +6665,25 @@
         <v>21</v>
       </c>
       <c r="H125" t="n">
-        <v>36.6962823324344</v>
+        <v>0.343735110269007</v>
       </c>
       <c r="I125" t="n">
-        <v>36.730447243953</v>
+        <v>0.343017504811598</v>
       </c>
       <c r="J125" t="n">
-        <v>0.125114789334616</v>
+        <v>0.0089836869845896</v>
       </c>
       <c r="K125" t="n">
-        <v>0.829172997612329</v>
+        <v>0.897655741263295</v>
       </c>
       <c r="L125" t="n">
-        <v>1.15652900956091</v>
+        <v>0.309539271173396</v>
       </c>
       <c r="M125" t="n">
-        <v>0.179732941870157</v>
+        <v>0.00971642662391815</v>
       </c>
       <c r="N125" t="n">
-        <v>30.3885041702584</v>
+        <v>7.54124605361421</v>
       </c>
       <c r="O125" t="n">
         <v>1500</v>
@@ -6715,25 +6715,25 @@
         <v>21</v>
       </c>
       <c r="H126" t="n">
-        <v>36.6962823324344</v>
+        <v>0.343735110269007</v>
       </c>
       <c r="I126" t="n">
-        <v>36.730447243953</v>
+        <v>0.343017504811598</v>
       </c>
       <c r="J126" t="n">
-        <v>0.0569087261957062</v>
+        <v>0.000858360136925187</v>
       </c>
       <c r="K126" t="n">
-        <v>0.633383980898633</v>
+        <v>0.369763403516389</v>
       </c>
       <c r="L126" t="n">
-        <v>0.781980050890497</v>
+        <v>0.0954365915170449</v>
       </c>
       <c r="M126" t="n">
-        <v>0.179732941870157</v>
+        <v>0.00971642662391815</v>
       </c>
       <c r="N126" t="n">
-        <v>68.3370640887754</v>
+        <v>91.1658866973561</v>
       </c>
       <c r="O126" t="n">
         <v>1500</v>
@@ -6765,25 +6765,25 @@
         <v>21</v>
       </c>
       <c r="H127" t="n">
-        <v>36.6962823324344</v>
+        <v>0.343735110269007</v>
       </c>
       <c r="I127" t="n">
-        <v>37.3484561529717</v>
+        <v>0.602970279505336</v>
       </c>
       <c r="J127" t="n">
-        <v>0.129680129948193</v>
+        <v>0.00599702738614869</v>
       </c>
       <c r="K127" t="n">
-        <v>0.408074668981984</v>
+        <v>0.0310397221619276</v>
       </c>
       <c r="L127" t="n">
-        <v>1.18237100827739</v>
+        <v>0.253657587474151</v>
       </c>
       <c r="M127" t="n">
-        <v>0.121961872961774</v>
+        <v>0.00554684227388952</v>
       </c>
       <c r="N127" t="n">
-        <v>-6.32841788912072</v>
+        <v>-8.11606117553248</v>
       </c>
       <c r="O127" t="n">
         <v>1500</v>
@@ -6815,25 +6815,25 @@
         <v>21</v>
       </c>
       <c r="H128" t="n">
-        <v>36.6962823324344</v>
+        <v>0.343735110269007</v>
       </c>
       <c r="I128" t="n">
-        <v>37.3484561529717</v>
+        <v>0.602970279505336</v>
       </c>
       <c r="J128" t="n">
-        <v>0.0928754688858221</v>
+        <v>0.00622286066673312</v>
       </c>
       <c r="K128" t="n">
-        <v>0.318537008899501</v>
+        <v>0.037985673974387</v>
       </c>
       <c r="L128" t="n">
-        <v>0.998783814397267</v>
+        <v>0.258135207272878</v>
       </c>
       <c r="M128" t="n">
-        <v>0.121961872961774</v>
+        <v>0.00554684227388952</v>
       </c>
       <c r="N128" t="n">
-        <v>23.8487679547757</v>
+        <v>-12.1874457477509</v>
       </c>
       <c r="O128" t="n">
         <v>1500</v>
@@ -6865,25 +6865,25 @@
         <v>21</v>
       </c>
       <c r="H129" t="n">
-        <v>36.6962823324344</v>
+        <v>0.343735110269007</v>
       </c>
       <c r="I129" t="n">
-        <v>37.3484561529717</v>
+        <v>0.602970279505336</v>
       </c>
       <c r="J129" t="n">
-        <v>0.048614812527187</v>
+        <v>0.000553347150329909</v>
       </c>
       <c r="K129" t="n">
-        <v>0.202083785543738</v>
+        <v>0.00325591491209028</v>
       </c>
       <c r="L129" t="n">
-        <v>0.722106518009576</v>
+        <v>0.0765309800766936</v>
       </c>
       <c r="M129" t="n">
-        <v>0.121961872961774</v>
+        <v>0.00554684227388952</v>
       </c>
       <c r="N129" t="n">
-        <v>60.1393358870241</v>
+        <v>90.024105193424</v>
       </c>
       <c r="O129" t="n">
         <v>1500</v>
@@ -6915,25 +6915,25 @@
         <v>21</v>
       </c>
       <c r="H130" t="n">
-        <v>40.9570401195555</v>
+        <v>1.01828545534371</v>
       </c>
       <c r="I130" t="n">
-        <v>41.0133449135329</v>
+        <v>1.02468508679804</v>
       </c>
       <c r="J130" t="n">
-        <v>0.180745470148373</v>
+        <v>0.0100806971056033</v>
       </c>
       <c r="K130" t="n">
-        <v>0.798350336444541</v>
+        <v>0.809178470254958</v>
       </c>
       <c r="L130" t="n">
-        <v>1.39402479856463</v>
+        <v>0.326974192958096</v>
       </c>
       <c r="M130" t="n">
-        <v>0.276457373188128</v>
+        <v>0.0142234534728897</v>
       </c>
       <c r="N130" t="n">
-        <v>34.6208538177143</v>
+        <v>29.1262341820333</v>
       </c>
       <c r="O130" t="n">
         <v>1500</v>
@@ -6965,25 +6965,25 @@
         <v>21</v>
       </c>
       <c r="H131" t="n">
-        <v>40.9570401195555</v>
+        <v>1.01828545534371</v>
       </c>
       <c r="I131" t="n">
-        <v>41.0133449135329</v>
+        <v>1.02468508679804</v>
       </c>
       <c r="J131" t="n">
-        <v>0.193965027866898</v>
+        <v>0.0124354274557126</v>
       </c>
       <c r="K131" t="n">
-        <v>0.820164966355546</v>
+        <v>0.868275187479622</v>
       </c>
       <c r="L131" t="n">
-        <v>1.43728346919859</v>
+        <v>0.363758159627774</v>
       </c>
       <c r="M131" t="n">
-        <v>0.276457373188128</v>
+        <v>0.0142234534728897</v>
       </c>
       <c r="N131" t="n">
-        <v>29.8390830998362</v>
+        <v>12.570969635364</v>
       </c>
       <c r="O131" t="n">
         <v>1500</v>
@@ -7015,25 +7015,25 @@
         <v>21</v>
       </c>
       <c r="H132" t="n">
-        <v>40.9570401195555</v>
+        <v>1.01828545534371</v>
       </c>
       <c r="I132" t="n">
-        <v>41.0133449135329</v>
+        <v>1.02468508679804</v>
       </c>
       <c r="J132" t="n">
-        <v>0.0859092164394552</v>
+        <v>0.00113223797637098</v>
       </c>
       <c r="K132" t="n">
-        <v>0.627197742565661</v>
+        <v>0.3554704595186</v>
       </c>
       <c r="L132" t="n">
-        <v>0.95774805144771</v>
+        <v>0.109179948065846</v>
       </c>
       <c r="M132" t="n">
-        <v>0.276457373188128</v>
+        <v>0.0142234534728897</v>
       </c>
       <c r="N132" t="n">
-        <v>68.9249682695225</v>
+        <v>92.0396408753397</v>
       </c>
       <c r="O132" t="n">
         <v>1500</v>
@@ -7065,25 +7065,25 @@
         <v>21</v>
       </c>
       <c r="H133" t="n">
-        <v>40.9570401195555</v>
+        <v>1.01828545534371</v>
       </c>
       <c r="I133" t="n">
-        <v>41.3373386081968</v>
+        <v>1.18173718645666</v>
       </c>
       <c r="J133" t="n">
-        <v>0.159278857243864</v>
+        <v>0.00825836983182553</v>
       </c>
       <c r="K133" t="n">
-        <v>0.668656392446277</v>
+        <v>0.33264105226722</v>
       </c>
       <c r="L133" t="n">
-        <v>1.30819892498704</v>
+        <v>0.295460924816848</v>
       </c>
       <c r="M133" t="n">
-        <v>0.217039984512556</v>
+        <v>0.00997780992507179</v>
       </c>
       <c r="N133" t="n">
-        <v>26.6131272532185</v>
+        <v>17.232640290388</v>
       </c>
       <c r="O133" t="n">
         <v>1500</v>
@@ -7115,25 +7115,25 @@
         <v>21</v>
       </c>
       <c r="H134" t="n">
-        <v>40.9570401195555</v>
+        <v>1.01828545534371</v>
       </c>
       <c r="I134" t="n">
-        <v>41.3373386081968</v>
+        <v>1.18173718645666</v>
       </c>
       <c r="J134" t="n">
-        <v>0.164443341067769</v>
+        <v>0.010144362217579</v>
       </c>
       <c r="K134" t="n">
-        <v>0.707835901888431</v>
+        <v>0.475417032484635</v>
       </c>
       <c r="L134" t="n">
-        <v>1.32438182176215</v>
+        <v>0.328452274943408</v>
       </c>
       <c r="M134" t="n">
-        <v>0.217039984512556</v>
+        <v>0.00997780992507179</v>
       </c>
       <c r="N134" t="n">
-        <v>24.2336192397507</v>
+        <v>-1.66922695218655</v>
       </c>
       <c r="O134" t="n">
         <v>1500</v>
@@ -7165,25 +7165,25 @@
         <v>21</v>
       </c>
       <c r="H135" t="n">
-        <v>40.9570401195555</v>
+        <v>1.01828545534371</v>
       </c>
       <c r="I135" t="n">
-        <v>41.3373386081968</v>
+        <v>1.18173718645666</v>
       </c>
       <c r="J135" t="n">
-        <v>0.0722832210957277</v>
+        <v>0.000826954245482987</v>
       </c>
       <c r="K135" t="n">
-        <v>0.501410896461906</v>
+        <v>0.0838823012736056</v>
       </c>
       <c r="L135" t="n">
-        <v>0.87897422695954</v>
+        <v>0.0925723180304047</v>
       </c>
       <c r="M135" t="n">
-        <v>0.217039984512556</v>
+        <v>0.00997780992507179</v>
       </c>
       <c r="N135" t="n">
-        <v>66.6958964920374</v>
+        <v>91.712066558764</v>
       </c>
       <c r="O135" t="n">
         <v>1500</v>
@@ -7215,26 +7215,22 @@
         <v>21</v>
       </c>
       <c r="H136" t="n">
-        <v>48.3307359372254</v>
-      </c>
-      <c r="I136" t="n">
-        <v>48.7505972176396</v>
-      </c>
-      <c r="J136" t="n">
-        <v>0.72573780132633</v>
-      </c>
-      <c r="K136" t="n">
-        <v>0.678799911758218</v>
-      </c>
-      <c r="L136" t="n">
-        <v>2.5012329343212</v>
-      </c>
-      <c r="M136" t="n">
-        <v>1.15889038972117</v>
-      </c>
-      <c r="N136" t="n">
-        <v>37.3764932591302</v>
-      </c>
+        <v>2.12486651454271</v>
+      </c>
+      <c r="I136" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J136" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K136" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L136" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="M136"/>
+      <c r="N136"/>
       <c r="O136" t="n">
         <v>1500</v>
       </c>
@@ -7265,26 +7261,22 @@
         <v>21</v>
       </c>
       <c r="H137" t="n">
-        <v>48.3307359372254</v>
-      </c>
-      <c r="I137" t="n">
-        <v>48.7505972176396</v>
-      </c>
-      <c r="J137" t="n">
-        <v>0.948147796444164</v>
-      </c>
-      <c r="K137" t="n">
-        <v>0.823855003255915</v>
-      </c>
-      <c r="L137" t="n">
-        <v>3.03453892960124</v>
-      </c>
-      <c r="M137" t="n">
-        <v>1.15889038972117</v>
-      </c>
-      <c r="N137" t="n">
-        <v>18.1848598578604</v>
-      </c>
+        <v>2.12486651454271</v>
+      </c>
+      <c r="I137" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J137" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K137" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L137" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="M137"/>
+      <c r="N137"/>
       <c r="O137" t="n">
         <v>1500</v>
       </c>
@@ -7315,26 +7307,22 @@
         <v>21</v>
       </c>
       <c r="H138" t="n">
-        <v>48.3307359372254</v>
-      </c>
-      <c r="I138" t="n">
-        <v>48.7505972176396</v>
-      </c>
-      <c r="J138" t="n">
-        <v>0.937969864240762</v>
-      </c>
-      <c r="K138" t="n">
-        <v>0.711493354182955</v>
-      </c>
-      <c r="L138" t="n">
-        <v>2.84891025856942</v>
-      </c>
-      <c r="M138" t="n">
-        <v>1.15889038972117</v>
-      </c>
-      <c r="N138" t="n">
-        <v>19.0631079038944</v>
-      </c>
+        <v>2.12486651454271</v>
+      </c>
+      <c r="I138" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J138" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K138" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L138" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="M138"/>
+      <c r="N138"/>
       <c r="O138" t="n">
         <v>1500</v>
       </c>
@@ -7365,26 +7353,22 @@
         <v>21</v>
       </c>
       <c r="H139" t="n">
-        <v>48.3307359372254</v>
-      </c>
-      <c r="I139" t="n">
-        <v>48.5473802755356</v>
-      </c>
-      <c r="J139" t="n">
-        <v>0.682684571831181</v>
-      </c>
-      <c r="K139" t="n">
-        <v>0.702070808283233</v>
-      </c>
-      <c r="L139" t="n">
-        <v>2.38541712001429</v>
-      </c>
-      <c r="M139" t="n">
-        <v>1.00624344156243</v>
-      </c>
-      <c r="N139" t="n">
-        <v>32.1551283085975</v>
-      </c>
+        <v>2.12486651454271</v>
+      </c>
+      <c r="I139" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J139" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K139" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L139" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="M139"/>
+      <c r="N139"/>
       <c r="O139" t="n">
         <v>1500</v>
       </c>
@@ -7415,26 +7399,22 @@
         <v>21</v>
       </c>
       <c r="H140" t="n">
-        <v>48.3307359372254</v>
-      </c>
-      <c r="I140" t="n">
-        <v>48.5473802755356</v>
-      </c>
-      <c r="J140" t="n">
-        <v>0.934107094988392</v>
-      </c>
-      <c r="K140" t="n">
-        <v>0.886872419039339</v>
-      </c>
-      <c r="L140" t="n">
-        <v>3.04766457678441</v>
-      </c>
-      <c r="M140" t="n">
-        <v>1.00624344156243</v>
-      </c>
-      <c r="N140" t="n">
-        <v>7.1688761977943</v>
-      </c>
+        <v>2.12486651454271</v>
+      </c>
+      <c r="I140" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J140" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K140" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L140" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="M140"/>
+      <c r="N140"/>
       <c r="O140" t="n">
         <v>1500</v>
       </c>
@@ -7465,26 +7445,22 @@
         <v>21</v>
       </c>
       <c r="H141" t="n">
-        <v>48.3307359372254</v>
-      </c>
-      <c r="I141" t="n">
-        <v>48.5473802755356</v>
-      </c>
-      <c r="J141" t="n">
-        <v>0.908124889507531</v>
-      </c>
-      <c r="K141" t="n">
-        <v>0.764255989202565</v>
-      </c>
-      <c r="L141" t="n">
-        <v>2.78960482671481</v>
-      </c>
-      <c r="M141" t="n">
-        <v>1.00624344156243</v>
-      </c>
-      <c r="N141" t="n">
-        <v>9.75097555940784</v>
-      </c>
+        <v>2.12486651454271</v>
+      </c>
+      <c r="I141" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J141" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K141" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L141" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="M141"/>
+      <c r="N141"/>
       <c r="O141" t="n">
         <v>1500</v>
       </c>
